--- a/init-data/hzero-admin/hzero_platform/hzero-iam-menu.xlsx
+++ b/init-data/hzero-admin/hzero_platform/hzero-iam-menu.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HZERO-OPEN-PROJECTS\hzero-resource\init-data\hzero-admin\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\hzero-resource\init-data\hzero-admin\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F48B44A-AE21-45F8-91C9-1D77BB1F944F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-121" yWindow="-121" windowWidth="29042" windowHeight="15840" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -2149,18 +2148,12 @@
     <t>FWJKKZT</t>
   </si>
   <si>
-    <t>inner-link</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>dispatch-platform</t>
   </si>
   <si>
-    <t>/hadm</t>
-  </si>
-  <si>
     <t>hzero.site.config|hzero.site.config.platform-manager|hzero.site.config.inner.admin.console</t>
   </si>
   <si>
@@ -3572,13 +3565,21 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dev.hzero.org:8060/hadm</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="77">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="78">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -4050,6 +4051,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4185,11 +4194,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4315,10 +4325,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4658,30 +4671,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.55"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+    <row r="1" spans="1:8" ht="64.45" customHeight="1">
       <c r="A1" s="4"/>
       <c r="C1" s="87" t="s">
         <v>0</v>
@@ -4692,7 +4705,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -4706,7 +4719,7 @@
       <c r="F3" s="88"/>
       <c r="G3" s="88"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
+    <row r="4" spans="1:8">
       <c r="C4" s="89" t="s">
         <v>3</v>
       </c>
@@ -4727,7 +4740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -4747,7 +4760,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.65">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -4761,7 +4774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.65">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -4772,7 +4785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="70.2">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -4804,7 +4817,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="35.1">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -4827,7 +4840,7 @@
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -4835,7 +4848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -4843,7 +4856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -4851,7 +4864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -4877,7 +4890,7 @@
       </c>
       <c r="E26" s="86"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="52.65">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -4899,12 +4912,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.55"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="27" t="s">
@@ -5135,29 +5150,29 @@
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="M10" t="s">
         <v>100</v>
-      </c>
-      <c r="M10" t="s">
-        <v>101</v>
       </c>
       <c r="N10" t="s">
         <v>84</v>
       </c>
       <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" s="92" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" t="s">
         <v>102</v>
-      </c>
-      <c r="P10" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>81</v>
-      </c>
-      <c r="R10" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" t="s">
-        <v>104</v>
       </c>
       <c r="T10" t="s">
         <v>81</v>
@@ -5166,7 +5181,7 @@
         <v>86</v>
       </c>
       <c r="W10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X10" t="s">
         <v>84</v>
@@ -5174,16 +5189,16 @@
     </row>
     <row r="11" spans="1:25">
       <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
         <v>106</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>107</v>
-      </c>
-      <c r="G11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" t="s">
-        <v>109</v>
       </c>
       <c r="J11" t="s">
         <v>80</v>
@@ -5193,13 +5208,13 @@
         <v>iam_menu-10</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s">
         <v>84</v>
       </c>
       <c r="O11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q11" t="s">
         <v>81</v>
@@ -5208,7 +5223,7 @@
         <v>81</v>
       </c>
       <c r="S11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T11" t="s">
         <v>81</v>
@@ -5222,19 +5237,19 @@
     </row>
     <row r="12" spans="1:25">
       <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
         <v>113</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>114</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>115</v>
-      </c>
-      <c r="H12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" t="s">
-        <v>117</v>
       </c>
       <c r="J12" t="s">
         <v>80</v>
@@ -5244,28 +5259,28 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N12" t="s">
         <v>84</v>
       </c>
       <c r="O12" t="s">
+        <v>118</v>
+      </c>
+      <c r="P12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" t="s">
         <v>120</v>
-      </c>
-      <c r="P12" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>81</v>
-      </c>
-      <c r="R12" t="s">
-        <v>81</v>
-      </c>
-      <c r="S12" t="s">
-        <v>122</v>
       </c>
       <c r="T12" t="s">
         <v>81</v>
@@ -5279,16 +5294,16 @@
     </row>
     <row r="13" spans="1:25">
       <c r="E13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J13" t="s">
         <v>80</v>
@@ -5298,10 +5313,10 @@
         <v>iam_menu-12</v>
       </c>
       <c r="L13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N13" t="s">
         <v>84</v>
@@ -5313,13 +5328,13 @@
         <v>81</v>
       </c>
       <c r="S13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T13" t="s">
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V13" t="s">
         <v>86</v>
@@ -5330,19 +5345,19 @@
     </row>
     <row r="14" spans="1:25">
       <c r="E14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
         <v>127</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>128</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>129</v>
-      </c>
-      <c r="H14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I14" t="s">
-        <v>131</v>
       </c>
       <c r="J14" t="s">
         <v>80</v>
@@ -5352,7 +5367,7 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M14" t="s">
         <v>92</v>
@@ -5361,19 +5376,19 @@
         <v>84</v>
       </c>
       <c r="O14" t="s">
+        <v>130</v>
+      </c>
+      <c r="P14" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" t="s">
         <v>132</v>
-      </c>
-      <c r="P14" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>81</v>
-      </c>
-      <c r="R14" t="s">
-        <v>81</v>
-      </c>
-      <c r="S14" t="s">
-        <v>134</v>
       </c>
       <c r="T14" t="s">
         <v>81</v>
@@ -5387,16 +5402,16 @@
     </row>
     <row r="15" spans="1:25">
       <c r="E15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J15" t="s">
         <v>80</v>
@@ -5406,10 +5421,10 @@
         <v>iam_menu-14</v>
       </c>
       <c r="L15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N15" t="s">
         <v>84</v>
@@ -5421,13 +5436,13 @@
         <v>81</v>
       </c>
       <c r="S15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T15" t="s">
         <v>81</v>
       </c>
       <c r="U15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V15" t="s">
         <v>86</v>
@@ -5438,19 +5453,19 @@
     </row>
     <row r="16" spans="1:25">
       <c r="E16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
         <v>138</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>139</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>140</v>
-      </c>
-      <c r="H16" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" t="s">
-        <v>142</v>
       </c>
       <c r="J16" t="s">
         <v>80</v>
@@ -5460,28 +5475,28 @@
         <v>iam_menu-9</v>
       </c>
       <c r="L16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N16" t="s">
         <v>84</v>
       </c>
       <c r="O16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>81</v>
+      </c>
+      <c r="R16" t="s">
+        <v>81</v>
+      </c>
+      <c r="S16" t="s">
         <v>144</v>
-      </c>
-      <c r="P16" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>81</v>
-      </c>
-      <c r="R16" t="s">
-        <v>81</v>
-      </c>
-      <c r="S16" t="s">
-        <v>146</v>
       </c>
       <c r="T16" t="s">
         <v>81</v>
@@ -5495,16 +5510,16 @@
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J17" t="s">
         <v>80</v>
@@ -5514,10 +5529,10 @@
         <v>iam_menu-16</v>
       </c>
       <c r="L17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N17" t="s">
         <v>84</v>
@@ -5529,13 +5544,13 @@
         <v>81</v>
       </c>
       <c r="S17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T17" t="s">
         <v>81</v>
       </c>
       <c r="U17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V17" t="s">
         <v>86</v>
@@ -5546,19 +5561,19 @@
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
         <v>150</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>151</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>152</v>
-      </c>
-      <c r="H18" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18" t="s">
-        <v>154</v>
       </c>
       <c r="J18" t="s">
         <v>80</v>
@@ -5568,28 +5583,28 @@
         <v>iam_menu-8</v>
       </c>
       <c r="L18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N18" t="s">
         <v>84</v>
       </c>
       <c r="O18" t="s">
+        <v>153</v>
+      </c>
+      <c r="P18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>81</v>
+      </c>
+      <c r="R18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S18" t="s">
         <v>155</v>
-      </c>
-      <c r="P18" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>81</v>
-      </c>
-      <c r="R18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S18" t="s">
-        <v>157</v>
       </c>
       <c r="T18" t="s">
         <v>81</v>
@@ -5603,16 +5618,16 @@
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
         <v>158</v>
       </c>
-      <c r="F19" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" t="s">
-        <v>160</v>
-      </c>
       <c r="H19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
         <v>80</v>
@@ -5622,10 +5637,10 @@
         <v>iam_menu-18</v>
       </c>
       <c r="L19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N19" t="s">
         <v>84</v>
@@ -5637,7 +5652,7 @@
         <v>81</v>
       </c>
       <c r="S19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T19" t="s">
         <v>81</v>
@@ -5651,16 +5666,16 @@
     </row>
     <row r="20" spans="5:24">
       <c r="E20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
         <v>162</v>
       </c>
-      <c r="F20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" t="s">
-        <v>164</v>
-      </c>
       <c r="H20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
         <v>80</v>
@@ -5670,7 +5685,7 @@
         <v>iam_menu-18</v>
       </c>
       <c r="L20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" t="s">
         <v>81</v>
@@ -5685,7 +5700,7 @@
         <v>81</v>
       </c>
       <c r="S20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T20" t="s">
         <v>81</v>
@@ -5699,16 +5714,16 @@
     </row>
     <row r="21" spans="5:24">
       <c r="E21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
         <v>166</v>
       </c>
-      <c r="F21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G21" t="s">
-        <v>168</v>
-      </c>
       <c r="H21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
         <v>80</v>
@@ -5718,10 +5733,10 @@
         <v>iam_menu-18</v>
       </c>
       <c r="L21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N21" t="s">
         <v>84</v>
@@ -5733,7 +5748,7 @@
         <v>81</v>
       </c>
       <c r="S21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="T21" t="s">
         <v>81</v>
@@ -5747,16 +5762,16 @@
     </row>
     <row r="22" spans="5:24">
       <c r="E22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
         <v>170</v>
       </c>
-      <c r="F22" t="s">
-        <v>171</v>
-      </c>
-      <c r="G22" t="s">
-        <v>172</v>
-      </c>
       <c r="H22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J22" t="s">
         <v>80</v>
@@ -5766,10 +5781,10 @@
         <v>iam_menu-18</v>
       </c>
       <c r="L22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N22" t="s">
         <v>84</v>
@@ -5781,7 +5796,7 @@
         <v>81</v>
       </c>
       <c r="S22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T22" t="s">
         <v>81</v>
@@ -5795,19 +5810,19 @@
     </row>
     <row r="23" spans="5:24">
       <c r="E23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
         <v>174</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>175</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>176</v>
-      </c>
-      <c r="H23" t="s">
-        <v>177</v>
-      </c>
-      <c r="I23" t="s">
-        <v>178</v>
       </c>
       <c r="J23" t="s">
         <v>80</v>
@@ -5817,10 +5832,10 @@
         <v>iam_menu-8</v>
       </c>
       <c r="L23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N23" t="s">
         <v>84</v>
@@ -5829,7 +5844,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q23" t="s">
         <v>81</v>
@@ -5838,7 +5853,7 @@
         <v>81</v>
       </c>
       <c r="S23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T23" t="s">
         <v>81</v>
@@ -5852,16 +5867,16 @@
     </row>
     <row r="24" spans="5:24">
       <c r="E24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
         <v>181</v>
       </c>
-      <c r="F24" t="s">
-        <v>182</v>
-      </c>
-      <c r="G24" t="s">
-        <v>183</v>
-      </c>
       <c r="H24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
         <v>80</v>
@@ -5871,10 +5886,10 @@
         <v>iam_menu-23</v>
       </c>
       <c r="L24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N24" t="s">
         <v>84</v>
@@ -5886,7 +5901,7 @@
         <v>81</v>
       </c>
       <c r="S24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T24" t="s">
         <v>81</v>
@@ -5900,16 +5915,16 @@
     </row>
     <row r="25" spans="5:24">
       <c r="E25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" t="s">
         <v>185</v>
       </c>
-      <c r="F25" t="s">
-        <v>186</v>
-      </c>
-      <c r="G25" t="s">
-        <v>187</v>
-      </c>
       <c r="H25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J25" t="s">
         <v>80</v>
@@ -5919,7 +5934,7 @@
         <v>iam_menu-23</v>
       </c>
       <c r="L25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -5934,7 +5949,7 @@
         <v>81</v>
       </c>
       <c r="S25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="T25" t="s">
         <v>81</v>
@@ -5948,16 +5963,16 @@
     </row>
     <row r="26" spans="5:24">
       <c r="E26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" t="s">
         <v>189</v>
       </c>
-      <c r="F26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G26" t="s">
-        <v>191</v>
-      </c>
       <c r="H26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J26" t="s">
         <v>80</v>
@@ -5967,10 +5982,10 @@
         <v>iam_menu-23</v>
       </c>
       <c r="L26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N26" t="s">
         <v>84</v>
@@ -5982,7 +5997,7 @@
         <v>81</v>
       </c>
       <c r="S26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="T26" t="s">
         <v>81</v>
@@ -5996,16 +6011,16 @@
     </row>
     <row r="27" spans="5:24">
       <c r="E27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" t="s">
         <v>193</v>
       </c>
-      <c r="F27" t="s">
-        <v>194</v>
-      </c>
-      <c r="G27" t="s">
-        <v>195</v>
-      </c>
       <c r="H27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J27" t="s">
         <v>80</v>
@@ -6015,10 +6030,10 @@
         <v>iam_menu-23</v>
       </c>
       <c r="L27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N27" t="s">
         <v>84</v>
@@ -6030,7 +6045,7 @@
         <v>81</v>
       </c>
       <c r="S27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="T27" t="s">
         <v>81</v>
@@ -6044,16 +6059,16 @@
     </row>
     <row r="28" spans="5:24">
       <c r="E28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" t="s">
         <v>197</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>198</v>
-      </c>
-      <c r="G28" t="s">
-        <v>199</v>
-      </c>
-      <c r="H28" t="s">
-        <v>200</v>
       </c>
       <c r="J28" t="s">
         <v>80</v>
@@ -6066,13 +6081,13 @@
         <v>91</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N28" t="s">
         <v>84</v>
       </c>
       <c r="O28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q28" t="s">
         <v>81</v>
@@ -6081,7 +6096,7 @@
         <v>81</v>
       </c>
       <c r="S28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T28" t="s">
         <v>81</v>
@@ -6095,19 +6110,19 @@
     </row>
     <row r="29" spans="5:24">
       <c r="E29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" t="s">
         <v>203</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>204</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>205</v>
-      </c>
-      <c r="H29" t="s">
-        <v>206</v>
-      </c>
-      <c r="I29" t="s">
-        <v>207</v>
       </c>
       <c r="J29" t="s">
         <v>80</v>
@@ -6117,19 +6132,19 @@
         <v>iam_menu-28</v>
       </c>
       <c r="L29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N29" t="s">
         <v>84</v>
       </c>
       <c r="O29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q29" t="s">
         <v>81</v>
@@ -6138,7 +6153,7 @@
         <v>81</v>
       </c>
       <c r="S29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T29" t="s">
         <v>81</v>
@@ -6152,16 +6167,16 @@
     </row>
     <row r="30" spans="5:24">
       <c r="E30" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" t="s">
         <v>210</v>
       </c>
-      <c r="F30" t="s">
-        <v>211</v>
-      </c>
-      <c r="G30" t="s">
-        <v>212</v>
-      </c>
       <c r="H30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J30" t="s">
         <v>80</v>
@@ -6171,7 +6186,7 @@
         <v>iam_menu-29</v>
       </c>
       <c r="L30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M30" t="s">
         <v>81</v>
@@ -6186,13 +6201,13 @@
         <v>81</v>
       </c>
       <c r="S30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="T30" t="s">
         <v>81</v>
       </c>
       <c r="V30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X30" t="s">
         <v>84</v>
@@ -6200,16 +6215,16 @@
     </row>
     <row r="31" spans="5:24">
       <c r="E31" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" t="s">
         <v>215</v>
       </c>
-      <c r="F31" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" t="s">
-        <v>217</v>
-      </c>
       <c r="H31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J31" t="s">
         <v>80</v>
@@ -6219,7 +6234,7 @@
         <v>iam_menu-29</v>
       </c>
       <c r="L31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M31" t="s">
         <v>81</v>
@@ -6234,13 +6249,13 @@
         <v>81</v>
       </c>
       <c r="S31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="T31" t="s">
         <v>81</v>
       </c>
       <c r="V31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X31" t="s">
         <v>84</v>
@@ -6248,16 +6263,16 @@
     </row>
     <row r="32" spans="5:24">
       <c r="E32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" t="s">
         <v>219</v>
       </c>
-      <c r="F32" t="s">
-        <v>220</v>
-      </c>
-      <c r="G32" t="s">
-        <v>221</v>
-      </c>
       <c r="H32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J32" t="s">
         <v>80</v>
@@ -6267,7 +6282,7 @@
         <v>iam_menu-29</v>
       </c>
       <c r="L32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M32" t="s">
         <v>81</v>
@@ -6282,13 +6297,13 @@
         <v>81</v>
       </c>
       <c r="S32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="T32" t="s">
         <v>81</v>
       </c>
       <c r="V32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X32" t="s">
         <v>84</v>
@@ -6296,16 +6311,16 @@
     </row>
     <row r="33" spans="5:24">
       <c r="E33" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" t="s">
         <v>223</v>
       </c>
-      <c r="F33" t="s">
-        <v>224</v>
-      </c>
-      <c r="G33" t="s">
-        <v>225</v>
-      </c>
       <c r="H33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J33" t="s">
         <v>80</v>
@@ -6315,7 +6330,7 @@
         <v>iam_menu-29</v>
       </c>
       <c r="L33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M33" t="s">
         <v>81</v>
@@ -6330,13 +6345,13 @@
         <v>81</v>
       </c>
       <c r="S33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T33" t="s">
         <v>81</v>
       </c>
       <c r="V33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X33" t="s">
         <v>84</v>
@@ -6344,16 +6359,16 @@
     </row>
     <row r="34" spans="5:24">
       <c r="E34" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" t="s">
         <v>227</v>
       </c>
-      <c r="F34" t="s">
-        <v>228</v>
-      </c>
-      <c r="G34" t="s">
-        <v>229</v>
-      </c>
       <c r="H34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J34" t="s">
         <v>80</v>
@@ -6363,7 +6378,7 @@
         <v>iam_menu-29</v>
       </c>
       <c r="L34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M34" t="s">
         <v>81</v>
@@ -6378,13 +6393,13 @@
         <v>81</v>
       </c>
       <c r="S34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T34" t="s">
         <v>81</v>
       </c>
       <c r="V34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X34" t="s">
         <v>84</v>
@@ -6392,16 +6407,16 @@
     </row>
     <row r="35" spans="5:24">
       <c r="E35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J35" t="s">
         <v>80</v>
@@ -6411,10 +6426,10 @@
         <v>iam_menu-29</v>
       </c>
       <c r="L35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N35" t="s">
         <v>84</v>
@@ -6426,13 +6441,13 @@
         <v>81</v>
       </c>
       <c r="S35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="T35" t="s">
         <v>81</v>
       </c>
       <c r="U35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V35" t="s">
         <v>86</v>
@@ -6443,19 +6458,19 @@
     </row>
     <row r="36" spans="5:24">
       <c r="E36" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" t="s">
         <v>234</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>235</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>236</v>
-      </c>
-      <c r="H36" t="s">
-        <v>237</v>
-      </c>
-      <c r="I36" t="s">
-        <v>238</v>
       </c>
       <c r="J36" t="s">
         <v>80</v>
@@ -6465,19 +6480,19 @@
         <v>iam_menu-28</v>
       </c>
       <c r="L36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N36" t="s">
         <v>84</v>
       </c>
       <c r="O36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Q36" t="s">
         <v>81</v>
@@ -6486,7 +6501,7 @@
         <v>81</v>
       </c>
       <c r="S36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="T36" t="s">
         <v>81</v>
@@ -6500,16 +6515,16 @@
     </row>
     <row r="37" spans="5:24">
       <c r="E37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" t="s">
         <v>241</v>
       </c>
-      <c r="F37" t="s">
-        <v>242</v>
-      </c>
-      <c r="G37" t="s">
-        <v>243</v>
-      </c>
       <c r="H37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J37" t="s">
         <v>80</v>
@@ -6519,7 +6534,7 @@
         <v>iam_menu-36</v>
       </c>
       <c r="L37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M37" t="s">
         <v>81</v>
@@ -6528,7 +6543,7 @@
         <v>84</v>
       </c>
       <c r="O37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q37" t="s">
         <v>81</v>
@@ -6537,13 +6552,13 @@
         <v>81</v>
       </c>
       <c r="S37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="T37" t="s">
         <v>81</v>
       </c>
       <c r="V37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X37" t="s">
         <v>84</v>
@@ -6551,16 +6566,16 @@
     </row>
     <row r="38" spans="5:24">
       <c r="E38" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" t="s">
         <v>245</v>
       </c>
-      <c r="F38" t="s">
-        <v>246</v>
-      </c>
-      <c r="G38" t="s">
-        <v>247</v>
-      </c>
       <c r="H38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J38" t="s">
         <v>80</v>
@@ -6570,7 +6585,7 @@
         <v>iam_menu-36</v>
       </c>
       <c r="L38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M38" t="s">
         <v>81</v>
@@ -6579,7 +6594,7 @@
         <v>84</v>
       </c>
       <c r="O38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q38" t="s">
         <v>81</v>
@@ -6588,13 +6603,13 @@
         <v>81</v>
       </c>
       <c r="S38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T38" t="s">
         <v>81</v>
       </c>
       <c r="V38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X38" t="s">
         <v>84</v>
@@ -6602,16 +6617,16 @@
     </row>
     <row r="39" spans="5:24">
       <c r="E39" t="s">
+        <v>247</v>
+      </c>
+      <c r="F39" t="s">
+        <v>248</v>
+      </c>
+      <c r="G39" t="s">
         <v>249</v>
       </c>
-      <c r="F39" t="s">
-        <v>250</v>
-      </c>
-      <c r="G39" t="s">
-        <v>251</v>
-      </c>
       <c r="H39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J39" t="s">
         <v>80</v>
@@ -6621,7 +6636,7 @@
         <v>iam_menu-36</v>
       </c>
       <c r="L39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M39" t="s">
         <v>81</v>
@@ -6630,7 +6645,7 @@
         <v>84</v>
       </c>
       <c r="O39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q39" t="s">
         <v>81</v>
@@ -6639,13 +6654,13 @@
         <v>81</v>
       </c>
       <c r="S39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T39" t="s">
         <v>81</v>
       </c>
       <c r="V39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X39" t="s">
         <v>84</v>
@@ -6653,16 +6668,16 @@
     </row>
     <row r="40" spans="5:24">
       <c r="E40" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" t="s">
         <v>253</v>
       </c>
-      <c r="F40" t="s">
-        <v>254</v>
-      </c>
-      <c r="G40" t="s">
-        <v>255</v>
-      </c>
       <c r="H40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J40" t="s">
         <v>80</v>
@@ -6672,10 +6687,10 @@
         <v>iam_menu-36</v>
       </c>
       <c r="L40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N40" t="s">
         <v>84</v>
@@ -6687,7 +6702,7 @@
         <v>81</v>
       </c>
       <c r="S40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T40" t="s">
         <v>81</v>
@@ -6701,19 +6716,19 @@
     </row>
     <row r="41" spans="5:24">
       <c r="E41" t="s">
+        <v>255</v>
+      </c>
+      <c r="F41" t="s">
+        <v>256</v>
+      </c>
+      <c r="G41" t="s">
         <v>257</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
+        <v>257</v>
+      </c>
+      <c r="I41" t="s">
         <v>258</v>
-      </c>
-      <c r="G41" t="s">
-        <v>259</v>
-      </c>
-      <c r="H41" t="s">
-        <v>259</v>
-      </c>
-      <c r="I41" t="s">
-        <v>260</v>
       </c>
       <c r="J41" t="s">
         <v>80</v>
@@ -6723,7 +6738,7 @@
         <v>iam_menu-36</v>
       </c>
       <c r="L41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s">
         <v>81</v>
@@ -6732,7 +6747,7 @@
         <v>84</v>
       </c>
       <c r="O41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q41" t="s">
         <v>81</v>
@@ -6741,7 +6756,7 @@
         <v>81</v>
       </c>
       <c r="S41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T41" t="s">
         <v>81</v>
@@ -6755,16 +6770,16 @@
     </row>
     <row r="42" spans="5:24">
       <c r="E42" t="s">
+        <v>260</v>
+      </c>
+      <c r="F42" t="s">
+        <v>261</v>
+      </c>
+      <c r="G42" t="s">
         <v>262</v>
       </c>
-      <c r="F42" t="s">
-        <v>263</v>
-      </c>
-      <c r="G42" t="s">
-        <v>264</v>
-      </c>
       <c r="H42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J42" t="s">
         <v>80</v>
@@ -6774,10 +6789,10 @@
         <v>iam_menu-36</v>
       </c>
       <c r="L42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N42" t="s">
         <v>84</v>
@@ -6789,7 +6804,7 @@
         <v>81</v>
       </c>
       <c r="S42" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="T42" t="s">
         <v>81</v>
@@ -6803,16 +6818,16 @@
     </row>
     <row r="43" spans="5:24">
       <c r="E43" t="s">
+        <v>264</v>
+      </c>
+      <c r="F43" t="s">
+        <v>265</v>
+      </c>
+      <c r="G43" t="s">
         <v>266</v>
       </c>
-      <c r="F43" t="s">
-        <v>267</v>
-      </c>
-      <c r="G43" t="s">
-        <v>268</v>
-      </c>
       <c r="H43" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J43" t="s">
         <v>80</v>
@@ -6822,10 +6837,10 @@
         <v>iam_menu-36</v>
       </c>
       <c r="L43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N43" t="s">
         <v>84</v>
@@ -6837,7 +6852,7 @@
         <v>81</v>
       </c>
       <c r="S43" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T43" t="s">
         <v>81</v>
@@ -6851,17 +6866,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.55"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="34" t="s">
@@ -6896,1375 +6914,1375 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="E8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$35</f>
         <v>iam_menu-35</v>
       </c>
       <c r="G8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="E9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$35</f>
         <v>iam_menu-35</v>
       </c>
       <c r="G9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="E10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$35</f>
         <v>iam_menu-35</v>
       </c>
       <c r="G10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="E11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$35</f>
         <v>iam_menu-35</v>
       </c>
       <c r="G11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="E12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$35</f>
         <v>iam_menu-35</v>
       </c>
       <c r="G12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="E13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$35</f>
         <v>iam_menu-35</v>
       </c>
       <c r="G13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$35</f>
         <v>iam_menu-35</v>
       </c>
       <c r="G14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="E15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$35</f>
         <v>iam_menu-35</v>
       </c>
       <c r="G15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G24" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G27" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G32" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G34" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G35" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G38" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G39" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G40" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G42" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G44" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$41</f>
         <v>iam_menu-41</v>
       </c>
       <c r="G45" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G46" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G47" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G48" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G49" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G50" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G51" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F52" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G52" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G53" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G54" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F55" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G55" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F56" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F57" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G57" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F58" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G58" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F59" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G59" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F60" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G60" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F61" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G61" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F62" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G62" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F63" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G63" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F64" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G64" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F65" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G65" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F66" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G66" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F67" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G67" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F68" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G68" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F69" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G69" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F70" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G70" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F71" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G71" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F72" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G72" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F73" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G73" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F74" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G74" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F75" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G75" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F76" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G76" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F77" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G77" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G78" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F79" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G79" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F80" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="G80" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F81" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G81" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F82" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G82" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F83" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-17</v>
       </c>
       <c r="G83" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F84" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-17</v>
       </c>
       <c r="G84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F85" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G85" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F86" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G86" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F87" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F88" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G88" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F89" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G89" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F90" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G90" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F91" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G91" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F92" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G92" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F93" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G93" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F94" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G94" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F95" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G95" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F96" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G96" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F97" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F98" t="str">
         <f>菜单SAAS版!$E$20</f>
         <v>iam_menu-20</v>
       </c>
       <c r="G98" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F99" t="str">
         <f>菜单SAAS版!$E$21</f>
         <v>iam_menu-21</v>
       </c>
       <c r="G99" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F100" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G100" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F101" t="str">
         <f>菜单SAAS版!$E$22</f>
         <v>iam_menu-22</v>
       </c>
       <c r="G101" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F102" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G102" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F103" t="str">
         <f>菜单SAAS版!$E$24</f>
         <v>iam_menu-24</v>
       </c>
       <c r="G103" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F104" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G104" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F105" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G105" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F106" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G106" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F107" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G107" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F108" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G108" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F109" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G109" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F110" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G110" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F111" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G111" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F112" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G112" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F113" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G113" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F114" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G114" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F115" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G115" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F116" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G116" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F117" t="str">
         <f>菜单SAAS版!$E$25</f>
         <v>iam_menu-25</v>
       </c>
       <c r="G117" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F118" t="str">
         <f>菜单SAAS版!$E$26</f>
         <v>iam_menu-26</v>
       </c>
       <c r="G118" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F119" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G119" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F120" t="str">
         <f>菜单SAAS版!$E$27</f>
         <v>iam_menu-27</v>
       </c>
       <c r="G120" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -8274,12 +8292,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.55"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="41" t="s">
@@ -8314,10 +8332,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E7" s="66" t="s">
         <v>54</v>
@@ -8332,72 +8350,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K7" s="68" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>480</v>
+      </c>
+      <c r="N7" s="70" t="s">
         <v>481</v>
       </c>
-      <c r="M7" s="69" t="s">
+      <c r="O7" t="s">
         <v>482</v>
       </c>
-      <c r="N7" s="70" t="s">
+      <c r="P7" t="s">
         <v>483</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>484</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>485</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>486</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>487</v>
-      </c>
-      <c r="S7" t="s">
-        <v>488</v>
-      </c>
-      <c r="T7" t="s">
-        <v>489</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
+        <v>488</v>
+      </c>
+      <c r="W7" s="71" t="s">
+        <v>489</v>
+      </c>
+      <c r="X7" t="s">
         <v>490</v>
       </c>
-      <c r="W7" s="71" t="s">
+      <c r="Y7" t="s">
         <v>491</v>
-      </c>
-      <c r="X7" t="s">
-        <v>492</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="E8" t="s">
+        <v>492</v>
+      </c>
+      <c r="F8" t="s">
+        <v>493</v>
+      </c>
+      <c r="G8" t="s">
         <v>494</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>495</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>496</v>
-      </c>
-      <c r="H8" t="s">
-        <v>497</v>
-      </c>
-      <c r="I8" t="s">
-        <v>498</v>
       </c>
       <c r="J8" t="s">
         <v>80</v>
@@ -8412,7 +8430,7 @@
         <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="O8" t="s">
         <v>81</v>
@@ -8433,10 +8451,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="V8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -8444,22 +8462,22 @@
     </row>
     <row r="9" spans="1:25">
       <c r="E9" t="s">
+        <v>498</v>
+      </c>
+      <c r="F9" t="s">
+        <v>499</v>
+      </c>
+      <c r="G9" t="s">
         <v>500</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>501</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>502</v>
       </c>
-      <c r="H9" t="s">
-        <v>503</v>
-      </c>
-      <c r="I9" t="s">
-        <v>504</v>
-      </c>
       <c r="J9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K9" t="s">
         <v>81</v>
@@ -8471,7 +8489,7 @@
         <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="O9" t="s">
         <v>81</v>
@@ -8492,10 +8510,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="V9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -8503,19 +8521,19 @@
     </row>
     <row r="10" spans="1:25">
       <c r="E10" t="s">
+        <v>503</v>
+      </c>
+      <c r="F10" t="s">
+        <v>504</v>
+      </c>
+      <c r="G10" t="s">
         <v>505</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>506</v>
       </c>
-      <c r="G10" t="s">
-        <v>507</v>
-      </c>
-      <c r="H10" t="s">
-        <v>508</v>
-      </c>
       <c r="J10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K10" t="s">
         <v>81</v>
@@ -8528,7 +8546,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="O10" t="s">
         <v>81</v>
@@ -8549,19 +8567,19 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
+        <v>507</v>
+      </c>
+      <c r="V10" t="s">
+        <v>508</v>
+      </c>
+      <c r="W10" t="s">
+        <v>81</v>
+      </c>
+      <c r="X10" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y10" t="s">
         <v>509</v>
-      </c>
-      <c r="V10" t="s">
-        <v>510</v>
-      </c>
-      <c r="W10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X10" t="s">
-        <v>501</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -8572,33 +8590,33 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E12" s="73" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="74" t="s">
+        <v>512</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>513</v>
+      </c>
+      <c r="H12" t="s">
         <v>514</v>
       </c>
-      <c r="G12" s="75" t="s">
+      <c r="I12" t="s">
         <v>515</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" s="76" t="s">
         <v>516</v>
-      </c>
-      <c r="I12" t="s">
-        <v>517</v>
-      </c>
-      <c r="J12" s="76" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="E13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F13" t="str">
         <f>角色权限!$E$8</f>
@@ -8609,18 +8627,18 @@
         <v>iam_menu-30</v>
       </c>
       <c r="H13" t="s">
+        <v>518</v>
+      </c>
+      <c r="I13" t="s">
+        <v>519</v>
+      </c>
+      <c r="J13" t="s">
         <v>520</v>
-      </c>
-      <c r="I13" t="s">
-        <v>521</v>
-      </c>
-      <c r="J13" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="E14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F14" t="str">
         <f>角色权限!$E$8</f>
@@ -8631,18 +8649,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H14" t="s">
+        <v>518</v>
+      </c>
+      <c r="I14" t="s">
+        <v>519</v>
+      </c>
+      <c r="J14" t="s">
         <v>520</v>
-      </c>
-      <c r="I14" t="s">
-        <v>521</v>
-      </c>
-      <c r="J14" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="E15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F15" t="str">
         <f>角色权限!$E$9</f>
@@ -8653,18 +8671,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H15" t="s">
+        <v>518</v>
+      </c>
+      <c r="I15" t="s">
+        <v>519</v>
+      </c>
+      <c r="J15" t="s">
         <v>520</v>
-      </c>
-      <c r="I15" t="s">
-        <v>521</v>
-      </c>
-      <c r="J15" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="E16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F16" t="str">
         <f>角色权限!$E$10</f>
@@ -8675,18 +8693,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H16" t="s">
+        <v>518</v>
+      </c>
+      <c r="I16" t="s">
+        <v>519</v>
+      </c>
+      <c r="J16" t="s">
         <v>520</v>
-      </c>
-      <c r="I16" t="s">
-        <v>521</v>
-      </c>
-      <c r="J16" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F17" t="str">
         <f>角色权限!$E$8</f>
@@ -8697,18 +8715,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H17" t="s">
+        <v>518</v>
+      </c>
+      <c r="I17" t="s">
+        <v>519</v>
+      </c>
+      <c r="J17" t="s">
         <v>520</v>
-      </c>
-      <c r="I17" t="s">
-        <v>521</v>
-      </c>
-      <c r="J17" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F18" t="str">
         <f>角色权限!$E$8</f>
@@ -8719,18 +8737,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H18" t="s">
+        <v>518</v>
+      </c>
+      <c r="I18" t="s">
+        <v>519</v>
+      </c>
+      <c r="J18" t="s">
         <v>520</v>
-      </c>
-      <c r="I18" t="s">
-        <v>521</v>
-      </c>
-      <c r="J18" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F19" t="str">
         <f>角色权限!$E$8</f>
@@ -8741,18 +8759,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H19" t="s">
+        <v>518</v>
+      </c>
+      <c r="I19" t="s">
+        <v>519</v>
+      </c>
+      <c r="J19" t="s">
         <v>520</v>
-      </c>
-      <c r="I19" t="s">
-        <v>521</v>
-      </c>
-      <c r="J19" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F20" t="str">
         <f>角色权限!$E$8</f>
@@ -8763,18 +8781,18 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H20" t="s">
+        <v>518</v>
+      </c>
+      <c r="I20" t="s">
+        <v>519</v>
+      </c>
+      <c r="J20" t="s">
         <v>520</v>
-      </c>
-      <c r="I20" t="s">
-        <v>521</v>
-      </c>
-      <c r="J20" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F21" t="str">
         <f>角色权限!$E$8</f>
@@ -8785,18 +8803,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H21" t="s">
+        <v>518</v>
+      </c>
+      <c r="I21" t="s">
+        <v>519</v>
+      </c>
+      <c r="J21" t="s">
         <v>520</v>
-      </c>
-      <c r="I21" t="s">
-        <v>521</v>
-      </c>
-      <c r="J21" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F22" t="str">
         <f>角色权限!$E$8</f>
@@ -8807,18 +8825,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H22" t="s">
+        <v>518</v>
+      </c>
+      <c r="I22" t="s">
+        <v>519</v>
+      </c>
+      <c r="J22" t="s">
         <v>520</v>
-      </c>
-      <c r="I22" t="s">
-        <v>521</v>
-      </c>
-      <c r="J22" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F23" t="str">
         <f>角色权限!$E$8</f>
@@ -8829,18 +8847,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H23" t="s">
+        <v>518</v>
+      </c>
+      <c r="I23" t="s">
+        <v>519</v>
+      </c>
+      <c r="J23" t="s">
         <v>520</v>
-      </c>
-      <c r="I23" t="s">
-        <v>521</v>
-      </c>
-      <c r="J23" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F24" t="str">
         <f>角色权限!$E$8</f>
@@ -8851,18 +8869,18 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H24" t="s">
+        <v>518</v>
+      </c>
+      <c r="I24" t="s">
+        <v>519</v>
+      </c>
+      <c r="J24" t="s">
         <v>520</v>
-      </c>
-      <c r="I24" t="s">
-        <v>521</v>
-      </c>
-      <c r="J24" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F25" t="str">
         <f>角色权限!$E$8</f>
@@ -8873,18 +8891,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H25" t="s">
+        <v>518</v>
+      </c>
+      <c r="I25" t="s">
+        <v>519</v>
+      </c>
+      <c r="J25" t="s">
         <v>520</v>
-      </c>
-      <c r="I25" t="s">
-        <v>521</v>
-      </c>
-      <c r="J25" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F26" t="str">
         <f>角色权限!$E$8</f>
@@ -8895,18 +8913,18 @@
         <v>iam_menu-42</v>
       </c>
       <c r="H26" t="s">
+        <v>518</v>
+      </c>
+      <c r="I26" t="s">
+        <v>519</v>
+      </c>
+      <c r="J26" t="s">
         <v>520</v>
-      </c>
-      <c r="I26" t="s">
-        <v>521</v>
-      </c>
-      <c r="J26" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F27" t="str">
         <f>角色权限!$E$8</f>
@@ -8917,18 +8935,18 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H27" t="s">
+        <v>518</v>
+      </c>
+      <c r="I27" t="s">
+        <v>519</v>
+      </c>
+      <c r="J27" t="s">
         <v>520</v>
-      </c>
-      <c r="I27" t="s">
-        <v>521</v>
-      </c>
-      <c r="J27" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F28" t="str">
         <f>角色权限!$E$8</f>
@@ -8939,18 +8957,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H28" t="s">
+        <v>518</v>
+      </c>
+      <c r="I28" t="s">
+        <v>519</v>
+      </c>
+      <c r="J28" t="s">
         <v>520</v>
-      </c>
-      <c r="I28" t="s">
-        <v>521</v>
-      </c>
-      <c r="J28" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F29" t="str">
         <f>角色权限!$E$8</f>
@@ -8961,18 +8979,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H29" t="s">
+        <v>518</v>
+      </c>
+      <c r="I29" t="s">
+        <v>519</v>
+      </c>
+      <c r="J29" t="s">
         <v>520</v>
-      </c>
-      <c r="I29" t="s">
-        <v>521</v>
-      </c>
-      <c r="J29" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F30" t="str">
         <f>角色权限!$E$8</f>
@@ -8983,18 +9001,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H30" t="s">
+        <v>518</v>
+      </c>
+      <c r="I30" t="s">
+        <v>519</v>
+      </c>
+      <c r="J30" t="s">
         <v>520</v>
-      </c>
-      <c r="I30" t="s">
-        <v>521</v>
-      </c>
-      <c r="J30" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F31" t="str">
         <f>角色权限!$E$8</f>
@@ -9005,18 +9023,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H31" t="s">
+        <v>518</v>
+      </c>
+      <c r="I31" t="s">
+        <v>519</v>
+      </c>
+      <c r="J31" t="s">
         <v>520</v>
-      </c>
-      <c r="I31" t="s">
-        <v>521</v>
-      </c>
-      <c r="J31" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F32" t="str">
         <f>角色权限!$E$8</f>
@@ -9027,18 +9045,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H32" t="s">
+        <v>518</v>
+      </c>
+      <c r="I32" t="s">
+        <v>519</v>
+      </c>
+      <c r="J32" t="s">
         <v>520</v>
-      </c>
-      <c r="I32" t="s">
-        <v>521</v>
-      </c>
-      <c r="J32" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F33" t="str">
         <f>角色权限!$E$9</f>
@@ -9049,18 +9067,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H33" t="s">
+        <v>518</v>
+      </c>
+      <c r="I33" t="s">
+        <v>519</v>
+      </c>
+      <c r="J33" t="s">
         <v>520</v>
-      </c>
-      <c r="I33" t="s">
-        <v>521</v>
-      </c>
-      <c r="J33" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F34" t="str">
         <f>角色权限!$E$8</f>
@@ -9071,18 +9089,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H34" t="s">
+        <v>518</v>
+      </c>
+      <c r="I34" t="s">
+        <v>519</v>
+      </c>
+      <c r="J34" t="s">
         <v>520</v>
-      </c>
-      <c r="I34" t="s">
-        <v>521</v>
-      </c>
-      <c r="J34" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F35" t="str">
         <f>角色权限!$E$8</f>
@@ -9093,18 +9111,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H35" t="s">
+        <v>518</v>
+      </c>
+      <c r="I35" t="s">
+        <v>519</v>
+      </c>
+      <c r="J35" t="s">
         <v>520</v>
-      </c>
-      <c r="I35" t="s">
-        <v>521</v>
-      </c>
-      <c r="J35" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F36" t="str">
         <f>角色权限!$E$8</f>
@@ -9115,18 +9133,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H36" t="s">
+        <v>518</v>
+      </c>
+      <c r="I36" t="s">
+        <v>519</v>
+      </c>
+      <c r="J36" t="s">
         <v>520</v>
-      </c>
-      <c r="I36" t="s">
-        <v>521</v>
-      </c>
-      <c r="J36" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F37" t="str">
         <f>角色权限!$E$8</f>
@@ -9137,18 +9155,18 @@
         <v>iam_menu-24</v>
       </c>
       <c r="H37" t="s">
+        <v>518</v>
+      </c>
+      <c r="I37" t="s">
+        <v>519</v>
+      </c>
+      <c r="J37" t="s">
         <v>520</v>
-      </c>
-      <c r="I37" t="s">
-        <v>521</v>
-      </c>
-      <c r="J37" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F38" t="str">
         <f>角色权限!$E$9</f>
@@ -9159,18 +9177,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H38" t="s">
+        <v>518</v>
+      </c>
+      <c r="I38" t="s">
+        <v>519</v>
+      </c>
+      <c r="J38" t="s">
         <v>520</v>
-      </c>
-      <c r="I38" t="s">
-        <v>521</v>
-      </c>
-      <c r="J38" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F39" t="str">
         <f>角色权限!$E$8</f>
@@ -9181,18 +9199,18 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H39" t="s">
+        <v>518</v>
+      </c>
+      <c r="I39" t="s">
+        <v>519</v>
+      </c>
+      <c r="J39" t="s">
         <v>520</v>
-      </c>
-      <c r="I39" t="s">
-        <v>521</v>
-      </c>
-      <c r="J39" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F40" t="str">
         <f>角色权限!$E$8</f>
@@ -9203,18 +9221,18 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H40" t="s">
+        <v>518</v>
+      </c>
+      <c r="I40" t="s">
+        <v>519</v>
+      </c>
+      <c r="J40" t="s">
         <v>520</v>
-      </c>
-      <c r="I40" t="s">
-        <v>521</v>
-      </c>
-      <c r="J40" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F41" t="str">
         <f>角色权限!$E$8</f>
@@ -9225,13 +9243,13 @@
         <v>iam_menu-27</v>
       </c>
       <c r="H41" t="s">
+        <v>518</v>
+      </c>
+      <c r="I41" t="s">
+        <v>519</v>
+      </c>
+      <c r="J41" t="s">
         <v>520</v>
-      </c>
-      <c r="I41" t="s">
-        <v>521</v>
-      </c>
-      <c r="J41" t="s">
-        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -9241,14 +9259,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.55"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="48" t="s">
@@ -9283,66 +9301,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E7" s="78" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="79" t="s">
+        <v>551</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="H7" t="s">
+        <v>552</v>
+      </c>
+      <c r="I7" t="s">
+        <v>478</v>
+      </c>
+      <c r="J7" t="s">
         <v>553</v>
       </c>
-      <c r="G7" s="80" t="s">
-        <v>518</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>554</v>
       </c>
-      <c r="I7" t="s">
-        <v>480</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>555</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>556</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>557</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>558</v>
-      </c>
-      <c r="N7" t="s">
-        <v>559</v>
-      </c>
-      <c r="O7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
+        <v>559</v>
+      </c>
+      <c r="F8" t="s">
+        <v>560</v>
+      </c>
+      <c r="G8" t="s">
         <v>561</v>
-      </c>
-      <c r="F8" t="s">
-        <v>562</v>
-      </c>
-      <c r="G8" t="s">
-        <v>563</v>
       </c>
       <c r="H8" t="s">
         <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M8" t="s">
         <v>84</v>
@@ -9362,33 +9380,33 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>564</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>565</v>
+      </c>
+      <c r="E10" s="82" t="s">
         <v>566</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="F10" s="83" t="s">
         <v>567</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="G10" s="84" t="s">
         <v>568</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="H10" s="85" t="s">
         <v>569</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="I10" t="s">
         <v>570</v>
-      </c>
-      <c r="H10" s="85" t="s">
-        <v>571</v>
-      </c>
-      <c r="I10" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G11" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -9399,15 +9417,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -9418,15 +9436,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -9437,15 +9455,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F14" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -9456,15 +9474,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -9475,15 +9493,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I15" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F16" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -9494,15 +9512,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F17" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -9513,15 +9531,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F18" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -9532,15 +9550,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F19" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -9551,15 +9569,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -9570,15 +9588,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I20" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F21" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -9589,15 +9607,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F22" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -9608,15 +9626,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G23" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -9627,15 +9645,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G24" t="str">
         <f>菜单SAAS版!$E$39</f>
@@ -9646,15 +9664,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F25" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G25" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -9665,15 +9683,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F26" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G26" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -9684,15 +9702,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I26" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F27" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G27" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -9703,15 +9721,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I27" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G28" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -9722,15 +9740,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I28" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F29" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -9741,15 +9759,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F30" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$19</f>
@@ -9760,15 +9778,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F31" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$20</f>
@@ -9779,15 +9797,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I31" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F32" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -9798,15 +9816,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$22</f>
@@ -9817,15 +9835,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I33" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F34" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -9836,15 +9854,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I34" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F35" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -9855,15 +9873,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I35" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F36" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -9874,15 +9892,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I36" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F37" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -9893,15 +9911,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I37" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F38" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -9912,15 +9930,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I38" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F39" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -9931,15 +9949,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I39" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F40" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -9950,15 +9968,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I40" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F41" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -9969,15 +9987,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I41" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F42" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -9988,15 +10006,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I42" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F43" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -10007,15 +10025,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I43" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F44" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -10026,15 +10044,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I44" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F45" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -10045,15 +10063,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I45" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F46" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -10064,7 +10082,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I46" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
